--- a/NestroyCa Geodata/Nestroys Vienna_Geonames.xlsx
+++ b/NestroyCa Geodata/Nestroys Vienna_Geonames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4ff354114e661c7/Dokumente/NestroyCa Geodata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4ff354114e661c7/Dokumente/GitHub/data/NestroyCa Geodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0098FBF-D447-4011-A696-9126798BF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{F0098FBF-D447-4011-A696-9126798BF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B7C9CB-A5A3-4F48-AF3D-D7E603D231BA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B37A44D-46BE-42F4-9BFC-2A55EE02D9E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Rothgassel</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Schwöchat</t>
   </si>
   <si>
-    <t>Stüksneusiedl</t>
-  </si>
-  <si>
     <t>Obermeidlinger</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Fleischbänk unt, au’m Lichtensteg</t>
   </si>
   <si>
-    <t>Kargenhausenschen hauses</t>
-  </si>
-  <si>
     <t>Burkersdorf</t>
   </si>
   <si>
@@ -333,6 +327,36 @@
   </si>
   <si>
     <t>https://www.wikidata.org/wiki/Q2651458</t>
+  </si>
+  <si>
+    <t>Stüksneusiedl (?)</t>
+  </si>
+  <si>
+    <t>Obermeidling - Wikidata</t>
+  </si>
+  <si>
+    <t>Heiligenstadt</t>
+  </si>
+  <si>
+    <t>Hütteldorf</t>
+  </si>
+  <si>
+    <t>Graben</t>
+  </si>
+  <si>
+    <t>Baden (Bei Wien)</t>
+  </si>
+  <si>
+    <t>Schottentor</t>
+  </si>
+  <si>
+    <t>Schottentor - Wikidata</t>
+  </si>
+  <si>
+    <t>https://www.geschichtewiki.wien.gv.at/Special:URIResolver/?curid=14709</t>
+  </si>
+  <si>
+    <t>https://www.geschichtewiki.wien.gv.at/Special:URIResolver/?curid=29024</t>
   </si>
 </sst>
 </file>
@@ -410,10 +434,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,47 +733,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C6110E-6CE5-4D55-95C9-C30F40D7A721}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
     <col min="6" max="6" width="21.90625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>51871</v>
@@ -761,21 +782,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -785,18 +806,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>1042</v>
@@ -804,10 +825,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -831,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -839,15 +860,15 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -855,15 +876,15 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
         <v>90869</v>
@@ -882,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -893,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -907,13 +928,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -923,14 +944,14 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -938,15 +959,15 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -954,7 +975,7 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1">
         <v>338</v>
@@ -962,17 +983,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -993,16 +1014,16 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1">
         <v>63</v>
@@ -1043,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -1069,7 +1090,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1">
         <v>67</v>
@@ -1080,18 +1101,27 @@
       <c r="A45" t="s">
         <v>30</v>
       </c>
+      <c r="D45" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>31</v>
       </c>
+      <c r="D46" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="D47" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1099,100 +1129,140 @@
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="E50" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="D51" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="D52" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="D53" s="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="D54" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="D55" s="1">
+        <v>39599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
+      <c r="G58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
         <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1200,8 +1270,10 @@
     <hyperlink ref="E22" r:id="rId1" display="https://www.wikidata.org/wiki/Q84870248" xr:uid="{683A9F20-FFA6-42B3-8F87-C942DFA1C089}"/>
     <hyperlink ref="E31" r:id="rId2" xr:uid="{40CCBDE6-F724-4820-9CE8-243C5E428245}"/>
     <hyperlink ref="E39" r:id="rId3" xr:uid="{D0BE451F-6A45-4BA2-8E27-EF565718B1F7}"/>
+    <hyperlink ref="E50" r:id="rId4" display="https://www.wikidata.org/wiki/Q2010395" xr:uid="{E5134BE3-45CE-4C1F-A9A4-2C5F949E4DE3}"/>
+    <hyperlink ref="E56" r:id="rId5" display="https://www.wikidata.org/wiki/Q1637154" xr:uid="{23BD787D-5C2E-4012-A531-CD372BB0CD25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/NestroyCa Geodata/Nestroys Vienna_Geonames.xlsx
+++ b/NestroyCa Geodata/Nestroys Vienna_Geonames.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4ff354114e661c7/Dokumente/GitHub/data/NestroyCa Geodata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckatsikadeli\Documents\GitHub\data\NestroyCa Geodata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{F0098FBF-D447-4011-A696-9126798BF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B7C9CB-A5A3-4F48-AF3D-D7E603D231BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41BAF34-9E0A-404D-AFC9-AE74F6582B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B37A44D-46BE-42F4-9BFC-2A55EE02D9E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Rothgassel</t>
   </si>
@@ -62,9 +51,6 @@
     <t>Gartengasse</t>
   </si>
   <si>
-    <t>Neugassen</t>
-  </si>
-  <si>
     <t>Breitengasse</t>
   </si>
   <si>
@@ -80,9 +66,6 @@
     <t>Wallnerstraße</t>
   </si>
   <si>
-    <t>Kärtnerstraße</t>
-  </si>
-  <si>
     <t>Wollzeil</t>
   </si>
   <si>
@@ -356,14 +339,147 @@
     <t>https://www.geschichtewiki.wien.gv.at/Special:URIResolver/?curid=14709</t>
   </si>
   <si>
-    <t>https://www.geschichtewiki.wien.gv.at/Special:URIResolver/?curid=29024</t>
+    <r>
+      <t>48° 13' 6.07" N, 16° 20' 20.63" E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF393838"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48° 13' 3.26" N, 16° 22' 32.27" E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF393838"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48° 11' 26.05" N, 16° 20' 51.96" E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF393838"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48° 12' 49.16" N, 16° 20' 43.79" E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF393838"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48° 12' 2.00" N, 16° 23' 9.95" E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF393838"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>48° 12' 39.55" N, 16° 21' 47.76" E</t>
+  </si>
+  <si>
+    <t>Neugasse</t>
+  </si>
+  <si>
+    <t>Große Neugasse</t>
+  </si>
+  <si>
+    <t>48° 11' 35.03" N, 16° 21' 51.26" E</t>
+  </si>
+  <si>
+    <t>48° 12' 12.37" N, 16° 21' 24.87" E</t>
+  </si>
+  <si>
+    <t>48.204832,16.370809</t>
+  </si>
+  <si>
+    <t>48°12'11.23"N, 16°20'24.86"E</t>
+  </si>
+  <si>
+    <t>48° 12' 35.05" N, 16° 22' 0.09" E</t>
+  </si>
+  <si>
+    <t>48°12'23.19"N, 16°22'1.99"E</t>
+  </si>
+  <si>
+    <t>48°12'59.0"N, 16°21'24.1"E</t>
+  </si>
+  <si>
+    <t>48°10'58.1"N, 16°19'18.1"E</t>
+  </si>
+  <si>
+    <t>48°12'50.0"N, 16°21'41.0"E</t>
+  </si>
+  <si>
+    <t>48° 12' 36.95" N, 16° 22' 26.04" E</t>
+  </si>
+  <si>
+    <t>48° 12' 38.49" N, 16° 22' 27.17" E</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12232635/kaerntner-strasse.html</t>
+  </si>
+  <si>
+    <t>Kärtner Straße</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2782729/gemeindebezirk-alsergrund.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6354988/hofburg.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12547863/feldgasse.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12547864/ranftlgasse.html</t>
+  </si>
+  <si>
+    <t>Preßgasse</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12547865/pressgasse.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +507,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF393838"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -413,15 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,106 +863,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C6110E-6CE5-4D55-95C9-C30F40D7A721}">
-  <dimension ref="A1:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="6" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>51871</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -839,7 +993,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -847,50 +1001,56 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
       </c>
       <c r="D15" s="1">
         <v>90869</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -898,382 +1058,440 @@
         <v>52575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
       </c>
       <c r="D19">
         <v>53</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+      <c r="G22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="F23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="K23" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="1">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <v>91826</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+      <c r="E39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1">
         <v>67</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D48" s="1">
         <v>42535</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D51" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D53" s="1">
         <v>968</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1">
         <v>662</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D55" s="1">
         <v>39599</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>40</v>
       </c>
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="F58" s="3"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>42</v>
       </c>
-      <c r="G58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="G65" t="s">
-        <v>106</v>
+      <c r="K65" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" display="https://www.wikidata.org/wiki/Q84870248" xr:uid="{683A9F20-FFA6-42B3-8F87-C942DFA1C089}"/>
-    <hyperlink ref="E31" r:id="rId2" xr:uid="{40CCBDE6-F724-4820-9CE8-243C5E428245}"/>
-    <hyperlink ref="E39" r:id="rId3" xr:uid="{D0BE451F-6A45-4BA2-8E27-EF565718B1F7}"/>
-    <hyperlink ref="E50" r:id="rId4" display="https://www.wikidata.org/wiki/Q2010395" xr:uid="{E5134BE3-45CE-4C1F-A9A4-2C5F949E4DE3}"/>
-    <hyperlink ref="E56" r:id="rId5" display="https://www.wikidata.org/wiki/Q1637154" xr:uid="{23BD787D-5C2E-4012-A531-CD372BB0CD25}"/>
+    <hyperlink ref="G22" r:id="rId1" display="https://www.wikidata.org/wiki/Q84870248" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G50" r:id="rId4" display="https://www.wikidata.org/wiki/Q2010395" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G56" r:id="rId5" display="https://www.wikidata.org/wiki/Q1637154" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K20" r:id="rId8" display="geo:48.204832,16.370809" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K22" r:id="rId9" display="https://geohack.toolforge.org/geohack.php?params=48.20312_N_16.34024_E_globe:earth&amp;language=en" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K31" r:id="rId11" display="https://geohack.toolforge.org/geohack.php?params=48.206443_N_16.36722_E_globe:earth&amp;language=en" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K39" r:id="rId12" display="https://geohack.toolforge.org/geohack.php?params=48.2164_N_16.3567_E_globe:earth&amp;language=en" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K50" r:id="rId13" display="https://geohack.toolforge.org/geohack.php?params=48.1828_N_16.3217_E_globe:earth&amp;language=en" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K56" r:id="rId14" display="https://geohack.toolforge.org/geohack.php?params=48.2139_N_16.3614_E_globe:earth&amp;language=en" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F57" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E39" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>